--- a/Tetangga.xlsx
+++ b/Tetangga.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -453,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -532,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
